--- a/biology/Zoologie/Athérine/Athérine.xlsx
+++ b/biology/Zoologie/Athérine/Athérine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ath%C3%A9rine</t>
+          <t>Athérine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Atherina est un genre de poissons de la famille des Atherinidae qui, selon les espèces, se rencontrent soit exclusivement en eau de mer soit également en eau douce ou saumâtre.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ath%C3%A9rine</t>
+          <t>Athérine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont de petits poissons (max 200 mm), au corps allongé et présentant deux nageoires dorsales dont l'antérieure est généralement constituée de 6 à 10 épines. 
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ath%C3%A9rine</t>
+          <t>Athérine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (8 mai 2017)[2] et FishBase                                           (8 mai 2017)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (8 mai 2017) et FishBase                                           (8 mai 2017) :
 Atherina boyeri Risso, 1810 - joël, athérine
 Atherina breviceps Valenciennes in Cuvier et Valenciennes, 1835 
 Atherina hepsetus Linnaeus, 1758 - sauclet, prêtre
